--- a/可视化数据/景区分析.xlsx
+++ b/可视化数据/景区分析.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\陈愿\Desktop\贵州省旅游数据清洗\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C3D60B-0049-423F-BE5E-25997E555519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="14508" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="景区评分对比" sheetId="1" r:id="rId1"/>
@@ -18,6 +12,19 @@
     <sheet name="月度差异" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -51,6 +58,15 @@
     <t>镇远古城比例</t>
   </si>
   <si>
+    <t>差评</t>
+  </si>
+  <si>
+    <t>中评</t>
+  </si>
+  <si>
+    <t>好评</t>
+  </si>
+  <si>
     <t>安顺龙宫</t>
   </si>
   <si>
@@ -94,25 +110,19 @@
   </si>
   <si>
     <t>月份</t>
-  </si>
-  <si>
-    <t>差评</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>中评</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>好评</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,7 +135,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -134,7 +143,6 @@
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -142,54 +150,174 @@
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
-      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
-      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,24 +326,210 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -223,16 +537,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -254,16 +807,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
@@ -272,181 +825,114 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="百分比" xfId="1" builtinId="5"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
       <border>
@@ -457,7 +943,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="0"/>
       </font>
       <fill>
@@ -485,40 +971,154 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.399975585192419"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="16"/>
-      <tableStyleElement type="headerRow" dxfId="15"/>
-      <tableStyleElement type="totalRow" dxfId="14"/>
-      <tableStyleElement type="firstColumn" dxfId="13"/>
-      <tableStyleElement type="lastColumn" dxfId="12"/>
-      <tableStyleElement type="firstRowStripe" dxfId="11"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="9"/>
-      <tableStyleElement type="totalRow" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
-      <tableStyleElement type="pageFieldValues" dxfId="0"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -768,31 +1368,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26851851851852" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="14.7265625" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" customWidth="1"/>
+    <col min="2" max="2" width="14.7222222222222" customWidth="1"/>
+    <col min="3" max="3" width="17.9074074074074" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" customWidth="1"/>
-    <col min="6" max="6" width="18.453125" customWidth="1"/>
+    <col min="5" max="5" width="16.8148148148148" customWidth="1"/>
+    <col min="6" max="6" width="18.4537037037037" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" customWidth="1"/>
-    <col min="9" max="9" width="14.08984375" customWidth="1"/>
+    <col min="8" max="8" width="17.9074074074074" customWidth="1"/>
+    <col min="9" max="9" width="14.0925925925926" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -821,315 +1421,316 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="16">
-        <v>5.2893999999999997E-2</v>
-      </c>
-      <c r="C2" s="18">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="D2" s="16">
-        <v>3.0969E-2</v>
-      </c>
-      <c r="E2" s="16">
-        <v>6.2562000000000006E-2</v>
-      </c>
-      <c r="F2" s="18">
-        <v>5.9880000000000003E-3</v>
-      </c>
-      <c r="G2" s="18">
-        <v>1.2987E-2</v>
-      </c>
-      <c r="H2" s="19">
-        <v>6.8837999999999996E-2</v>
-      </c>
-      <c r="I2" s="16">
-        <v>3.6999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="13">
+        <v>0.052894</v>
+      </c>
+      <c r="C2" s="14">
+        <v>0.006</v>
+      </c>
+      <c r="D2" s="15">
+        <v>0.030969</v>
+      </c>
+      <c r="E2" s="15">
+        <v>0.062562</v>
+      </c>
+      <c r="F2" s="14">
+        <v>0.005988</v>
+      </c>
+      <c r="G2" s="14">
+        <v>0.012987</v>
+      </c>
+      <c r="H2" s="16">
+        <v>0.068838</v>
+      </c>
+      <c r="I2" s="15">
+        <v>0.037</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="16">
-        <v>2.6946000000000001E-2</v>
-      </c>
-      <c r="C3" s="16">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="D3" s="16">
-        <v>1.7982000000000001E-2</v>
-      </c>
-      <c r="E3" s="16">
-        <v>2.2839999999999999E-2</v>
-      </c>
-      <c r="F3" s="16">
-        <v>1.9959999999999999E-3</v>
-      </c>
-      <c r="G3" s="16">
-        <v>1.0989000000000001E-2</v>
-      </c>
-      <c r="H3" s="16">
-        <v>4.4412E-2</v>
-      </c>
-      <c r="I3" s="16">
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="17">
+      <c r="B3" s="15">
+        <v>0.026946</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0.006</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0.017982</v>
+      </c>
+      <c r="E3" s="15">
+        <v>0.02284</v>
+      </c>
+      <c r="F3" s="15">
+        <v>0.001996</v>
+      </c>
+      <c r="G3" s="15">
+        <v>0.010989</v>
+      </c>
+      <c r="H3" s="15">
+        <v>0.044412</v>
+      </c>
+      <c r="I3" s="15">
+        <v>0.019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="18">
         <f t="shared" ref="B4:I4" si="0">SUM(B2:B3)</f>
-        <v>7.9839999999999994E-2</v>
-      </c>
-      <c r="C4" s="17">
+        <v>0.07984</v>
+      </c>
+      <c r="C4" s="18">
         <f t="shared" si="0"/>
-        <v>1.2E-2</v>
-      </c>
-      <c r="D4" s="17">
+        <v>0.012</v>
+      </c>
+      <c r="D4" s="18">
         <f t="shared" si="0"/>
-        <v>4.8951000000000001E-2</v>
-      </c>
-      <c r="E4" s="17">
+        <v>0.048951</v>
+      </c>
+      <c r="E4" s="18">
         <f t="shared" si="0"/>
-        <v>8.5402000000000006E-2</v>
-      </c>
-      <c r="F4" s="17">
+        <v>0.085402</v>
+      </c>
+      <c r="F4" s="18">
         <f t="shared" si="0"/>
-        <v>7.9839999999999998E-3</v>
-      </c>
-      <c r="G4" s="17">
+        <v>0.007984</v>
+      </c>
+      <c r="G4" s="18">
         <f t="shared" si="0"/>
-        <v>2.3976000000000001E-2</v>
-      </c>
-      <c r="H4" s="17">
+        <v>0.023976</v>
+      </c>
+      <c r="H4" s="18">
         <f t="shared" si="0"/>
-        <v>0.11324999999999999</v>
-      </c>
-      <c r="I4" s="17">
+        <v>0.11325</v>
+      </c>
+      <c r="I4" s="18">
         <f t="shared" si="0"/>
-        <v>5.5999999999999994E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.056</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="12"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="12">
         <v>3</v>
       </c>
-      <c r="B6" s="16">
-        <v>9.2813999999999994E-2</v>
-      </c>
-      <c r="C6" s="16">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D6" s="16">
-        <v>4.3956000000000002E-2</v>
-      </c>
-      <c r="E6" s="16">
-        <v>6.4547999999999994E-2</v>
-      </c>
-      <c r="F6" s="16">
-        <v>3.7923999999999999E-2</v>
-      </c>
-      <c r="G6" s="16">
-        <v>7.7922000000000005E-2</v>
-      </c>
-      <c r="H6" s="16">
+      <c r="B6" s="15">
+        <v>0.092814</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0.078</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0.043956</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0.064548</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0.037924</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0.077922</v>
+      </c>
+      <c r="H6" s="15">
         <v>0.1547</v>
       </c>
-      <c r="I6" s="16">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I6" s="15">
+        <v>0.075</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="12"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="12">
         <v>4</v>
       </c>
-      <c r="B9" s="16">
-        <v>0.19261500000000001</v>
-      </c>
-      <c r="C9" s="16">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="D9" s="16">
-        <v>0.13186800000000001</v>
-      </c>
-      <c r="E9" s="16">
+      <c r="B9" s="15">
+        <v>0.192615</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0.212</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0.131868</v>
+      </c>
+      <c r="E9" s="15">
         <v>0.153923</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="15">
         <v>0.110778</v>
       </c>
-      <c r="G9" s="16">
-        <v>0.20079900000000001</v>
-      </c>
-      <c r="H9" s="16">
-        <v>0.21613599999999999</v>
-      </c>
-      <c r="I9" s="16">
-        <v>0.20699999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G9" s="15">
+        <v>0.200799</v>
+      </c>
+      <c r="H9" s="15">
+        <v>0.216136</v>
+      </c>
+      <c r="I9" s="15">
+        <v>0.207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="12">
         <v>5</v>
       </c>
-      <c r="B10" s="16">
-        <v>0.63473100000000005</v>
-      </c>
-      <c r="C10" s="16">
-        <v>0.69799999999999995</v>
-      </c>
-      <c r="D10" s="16">
-        <v>0.77522500000000005</v>
-      </c>
-      <c r="E10" s="16">
-        <v>0.69612700000000005</v>
-      </c>
-      <c r="F10" s="18">
-        <v>0.84331299999999998</v>
-      </c>
-      <c r="G10" s="16">
-        <v>0.69730300000000001</v>
-      </c>
-      <c r="H10" s="19">
-        <v>0.51591399999999998</v>
-      </c>
-      <c r="I10" s="16">
-        <v>0.66200000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="17">
-        <f>SUM(B9:B10)</f>
-        <v>0.82734600000000003</v>
-      </c>
-      <c r="C11" s="17">
-        <f>SUM(C9:C10)</f>
-        <v>0.90999999999999992</v>
-      </c>
-      <c r="D11" s="17">
-        <f>SUM(D9:D10)</f>
-        <v>0.90709300000000004</v>
-      </c>
-      <c r="E11" s="17">
-        <f>SUM(E9:E10)</f>
-        <v>0.85005000000000008</v>
-      </c>
-      <c r="F11" s="17">
-        <f>SUM(F9:F10)</f>
-        <v>0.95409100000000002</v>
-      </c>
-      <c r="G11" s="17">
-        <f>SUM(G9:G10)</f>
-        <v>0.89810199999999996</v>
-      </c>
-      <c r="H11" s="17">
-        <f>SUM(H9:H10)</f>
-        <v>0.73204999999999998</v>
-      </c>
-      <c r="I11" s="17">
-        <f>SUM(I9:I10)</f>
-        <v>0.86899999999999999</v>
+      <c r="B10" s="15">
+        <v>0.634731</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0.698</v>
+      </c>
+      <c r="D10" s="15">
+        <v>0.775225</v>
+      </c>
+      <c r="E10" s="15">
+        <v>0.696127</v>
+      </c>
+      <c r="F10" s="14">
+        <v>0.843313</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0.697303</v>
+      </c>
+      <c r="H10" s="16">
+        <v>0.515914</v>
+      </c>
+      <c r="I10" s="15">
+        <v>0.662</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="18">
+        <f t="shared" ref="B11:I11" si="1">SUM(B9:B10)</f>
+        <v>0.827346</v>
+      </c>
+      <c r="C11" s="18">
+        <f t="shared" si="1"/>
+        <v>0.91</v>
+      </c>
+      <c r="D11" s="18">
+        <f t="shared" si="1"/>
+        <v>0.907093</v>
+      </c>
+      <c r="E11" s="18">
+        <f t="shared" si="1"/>
+        <v>0.85005</v>
+      </c>
+      <c r="F11" s="18">
+        <f t="shared" si="1"/>
+        <v>0.954091</v>
+      </c>
+      <c r="G11" s="18">
+        <f t="shared" si="1"/>
+        <v>0.898102</v>
+      </c>
+      <c r="H11" s="18">
+        <f t="shared" si="1"/>
+        <v>0.73205</v>
+      </c>
+      <c r="I11" s="18">
+        <f t="shared" si="1"/>
+        <v>0.869</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26851851851852" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <cols>
-    <col min="2" max="2" width="11.1796875" customWidth="1"/>
-    <col min="3" max="3" width="16.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" customWidth="1"/>
-    <col min="6" max="6" width="12.36328125" customWidth="1"/>
+    <col min="2" max="2" width="11.1759259259259" customWidth="1"/>
+    <col min="3" max="3" width="16.3611111111111" customWidth="1"/>
+    <col min="4" max="4" width="16.4537037037037" customWidth="1"/>
+    <col min="5" max="5" width="14.5462962962963" customWidth="1"/>
+    <col min="6" max="6" width="12.3611111111111" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="17.26953125" customWidth="1"/>
-    <col min="9" max="9" width="11.7265625"/>
+    <col min="8" max="8" width="17.2685185185185" customWidth="1"/>
+    <col min="9" max="9" width="11.7222222222222"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9">
       <c r="B1" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="4">
         <v>447</v>
@@ -1149,212 +1750,213 @@
       <c r="G2" s="4">
         <v>295</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <v>1210</v>
       </c>
       <c r="I2" s="11">
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="7">
-        <v>6.2640000000000001E-2</v>
-      </c>
-      <c r="C3" s="7">
-        <v>1.5504E-2</v>
-      </c>
-      <c r="D3" s="7">
-        <v>2.9187999999999999E-2</v>
-      </c>
-      <c r="E3" s="7">
-        <v>4.8998E-2</v>
+        <v>21</v>
+      </c>
+      <c r="B3" s="8">
+        <v>0.06264</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.015504</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.029188</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0.048998</v>
       </c>
       <c r="F3" s="9">
-        <v>6.1050000000000002E-3</v>
-      </c>
-      <c r="G3" s="7">
-        <v>3.3897999999999998E-2</v>
+        <v>0.006105</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0.033898</v>
       </c>
       <c r="H3" s="10">
-        <v>7.1073999999999998E-2</v>
-      </c>
-      <c r="I3" s="7">
-        <v>6.4935000000000007E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.071074</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0.064935</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="7">
-        <v>2.4608999999999999E-2</v>
-      </c>
-      <c r="C4" s="7">
-        <v>2.3255999999999999E-2</v>
-      </c>
-      <c r="D4" s="7">
-        <v>2.0305E-2</v>
-      </c>
-      <c r="E4" s="7">
-        <v>2.5611999999999999E-2</v>
-      </c>
-      <c r="F4" s="7">
-        <v>2.4420000000000002E-3</v>
-      </c>
-      <c r="G4" s="7">
-        <v>3.0508E-2</v>
-      </c>
-      <c r="H4" s="7">
-        <v>4.5455000000000002E-2</v>
-      </c>
-      <c r="I4" s="7">
-        <v>6.4939999999999998E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0.024609</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.023256</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.020305</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.025612</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0.002442</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0.030508</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0.045455</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0.006494</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="7">
+        <v>23</v>
+      </c>
+      <c r="B5" s="8">
         <v>0.114094</v>
       </c>
-      <c r="C5" s="7">
-        <v>0.11627899999999999</v>
-      </c>
-      <c r="D5" s="7">
-        <v>4.6954000000000003E-2</v>
-      </c>
-      <c r="E5" s="7">
-        <v>6.7929000000000003E-2</v>
-      </c>
-      <c r="F5" s="7">
-        <v>3.6630000000000003E-2</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0.11186400000000001</v>
-      </c>
-      <c r="H5" s="7">
+      <c r="C5" s="8">
+        <v>0.116279</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.046954</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.067929</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.03663</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.111864</v>
+      </c>
+      <c r="H5" s="8">
         <v>0.157025</v>
       </c>
-      <c r="I5" s="7">
-        <v>7.1429000000000006E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I5" s="8">
+        <v>0.071429</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="7">
+        <v>24</v>
+      </c>
+      <c r="B6" s="8">
         <v>0.187919</v>
       </c>
-      <c r="C6" s="7">
-        <v>0.27906999999999998</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="C6" s="8">
+        <v>0.27907</v>
+      </c>
+      <c r="D6" s="8">
         <v>0.123096</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="8">
         <v>0.16147</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="8">
         <v>0.106227</v>
       </c>
-      <c r="G6" s="7">
-        <v>0.25084699999999999</v>
-      </c>
-      <c r="H6" s="7">
+      <c r="G6" s="8">
+        <v>0.250847</v>
+      </c>
+      <c r="H6" s="8">
         <v>0.228099</v>
       </c>
-      <c r="I6" s="7">
-        <v>0.15584400000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I6" s="8">
+        <v>0.155844</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="7">
+        <v>25</v>
+      </c>
+      <c r="B7" s="8">
         <v>0.610738</v>
       </c>
-      <c r="C7" s="7">
-        <v>0.56589100000000003</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0.78045699999999996</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0.69599100000000003</v>
+      <c r="C7" s="8">
+        <v>0.565891</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.780457</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.695991</v>
       </c>
       <c r="F7" s="9">
-        <v>0.84859600000000002</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0.57288099999999997</v>
+        <v>0.848596</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0.572881</v>
       </c>
       <c r="H7" s="10">
-        <v>0.49834699999999998</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0.70129900000000001</v>
+        <v>0.498347</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0.701299</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26851851851852" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="14.7265625" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" customWidth="1"/>
-    <col min="5" max="5" width="12.1796875" customWidth="1"/>
+    <col min="3" max="3" width="14.7222222222222" customWidth="1"/>
+    <col min="4" max="4" width="12.3611111111111" customWidth="1"/>
+    <col min="5" max="5" width="12.1759259259259" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" customWidth="1"/>
-    <col min="8" max="8" width="15.08984375" customWidth="1"/>
+    <col min="7" max="7" width="12.4537037037037" customWidth="1"/>
+    <col min="8" max="8" width="15.0925925925926" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1383,7 +1985,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1412,7 +2014,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1441,7 +2043,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1470,7 +2072,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1499,7 +2101,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1528,7 +2130,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1557,7 +2159,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1586,7 +2188,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1615,7 +2217,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1644,7 +2246,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1673,7 +2275,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1703,7 +2305,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>